--- a/Project Schedule/Project_Schedule_211001.xlsx
+++ b/Project Schedule/Project_Schedule_211001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SA-OST-2021\fleet-monitor-docs\Project Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75853D-9FA2-4816-B25A-5F13C68D152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E1CA30-E724-4DE9-9658-723FA7E618C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{67D3CC3D-E252-42CF-80D1-C55B726E9C49}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Configuration file creator</t>
+  </si>
+  <si>
+    <t>Use Case 3</t>
   </si>
 </sst>
 </file>
@@ -784,6 +787,161 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -811,164 +969,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1286,10 +1289,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG80"/>
+  <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,36 +1310,36 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="73"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -1354,71 +1357,71 @@
       <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="85">
         <v>38</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="74">
+      <c r="G2" s="76"/>
+      <c r="H2" s="75">
         <v>39</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="74">
+      <c r="I2" s="76"/>
+      <c r="J2" s="75">
         <v>40</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="74">
+      <c r="K2" s="76"/>
+      <c r="L2" s="75">
         <v>41</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="74">
+      <c r="M2" s="76"/>
+      <c r="N2" s="75">
         <v>42</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="74">
+      <c r="O2" s="76"/>
+      <c r="P2" s="75">
         <v>43</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="70">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="76">
         <v>44</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="74">
+      <c r="S2" s="76"/>
+      <c r="T2" s="75">
         <v>45</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="74">
+      <c r="U2" s="76"/>
+      <c r="V2" s="75">
         <v>46</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="74">
+      <c r="W2" s="76"/>
+      <c r="X2" s="75">
         <v>47</v>
       </c>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="74">
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="75">
         <v>48</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="74">
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="75">
         <v>49</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="74">
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="75">
         <v>50</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="74">
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="75">
         <v>51</v>
       </c>
-      <c r="AG2" s="75"/>
+      <c r="AG2" s="77"/>
     </row>
     <row r="3" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1449,11 +1452,11 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="57"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1484,19 +1487,19 @@
       <c r="AG4" s="7"/>
     </row>
     <row r="5" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="80">
         <v>8</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="80">
         <v>8</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="80">
         <v>6</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="82">
         <v>6</v>
       </c>
       <c r="F5" s="14"/>
@@ -1529,15 +1532,15 @@
       <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="104"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
@@ -1564,19 +1567,19 @@
       <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="80">
         <v>5</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="80">
         <v>5</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="80">
         <v>5</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="82">
         <v>5</v>
       </c>
       <c r="F7" s="14"/>
@@ -1609,15 +1612,15 @@
       <c r="AG7" s="18"/>
     </row>
     <row r="8" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="59"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="104"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
       <c r="L8" s="16"/>
@@ -1644,15 +1647,15 @@
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="80">
         <v>10</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="58"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
@@ -1683,11 +1686,11 @@
       <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="59"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
@@ -1718,13 +1721,13 @@
       <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1755,11 +1758,11 @@
       <c r="AG11" s="10"/>
     </row>
     <row r="12" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="57"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1790,15 +1793,15 @@
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80">
         <v>5</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
@@ -1829,11 +1832,11 @@
       <c r="AG13" s="18"/>
     </row>
     <row r="14" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="59"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
@@ -1864,17 +1867,17 @@
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="80">
         <v>12</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="80">
         <v>15</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
@@ -1905,11 +1908,11 @@
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
@@ -1940,15 +1943,15 @@
       <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="80">
         <v>5</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="58"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
@@ -1979,11 +1982,11 @@
       <c r="AG17" s="18"/>
     </row>
     <row r="18" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
@@ -2014,17 +2017,17 @@
       <c r="AG18" s="18"/>
     </row>
     <row r="19" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="80">
         <v>12</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="80">
         <v>12</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -2055,11 +2058,11 @@
       <c r="AG19" s="18"/>
     </row>
     <row r="20" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="59"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -2090,17 +2093,17 @@
       <c r="AG20" s="18"/>
     </row>
     <row r="21" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="80">
         <v>5</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="80">
         <v>5</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
@@ -2131,11 +2134,11 @@
       <c r="AG21" s="18"/>
     </row>
     <row r="22" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="59"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
@@ -2166,17 +2169,17 @@
       <c r="AG22" s="18"/>
     </row>
     <row r="23" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="80">
         <v>5</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="80">
         <v>5</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
@@ -2207,11 +2210,11 @@
       <c r="AG23" s="18"/>
     </row>
     <row r="24" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="59"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
@@ -2242,13 +2245,13 @@
       <c r="AG24" s="18"/>
     </row>
     <row r="25" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2257,10 +2260,10 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="43" t="s">
+      <c r="N25" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="44"/>
+      <c r="O25" s="97"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -2281,11 +2284,11 @@
       <c r="AG25" s="10"/>
     </row>
     <row r="26" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -2294,8 +2297,8 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="46"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -2316,15 +2319,15 @@
       <c r="AG26" s="7"/>
     </row>
     <row r="27" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="80">
         <v>10</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="58"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
@@ -2355,11 +2358,11 @@
       <c r="AG27" s="18"/>
     </row>
     <row r="28" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="59"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="16"/>
@@ -2390,17 +2393,17 @@
       <c r="AG28" s="18"/>
     </row>
     <row r="29" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="80">
         <v>5</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="80">
         <v>5</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
@@ -2431,11 +2434,11 @@
       <c r="AG29" s="18"/>
     </row>
     <row r="30" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
@@ -2466,15 +2469,15 @@
       <c r="AG30" s="18"/>
     </row>
     <row r="31" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="80">
         <v>15</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="58"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="82"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
@@ -2505,11 +2508,11 @@
       <c r="AG31" s="18"/>
     </row>
     <row r="32" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
@@ -2540,15 +2543,15 @@
       <c r="AG32" s="18"/>
     </row>
     <row r="33" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="80">
         <v>20</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="58"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="82"/>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
@@ -2579,11 +2582,11 @@
       <c r="AG33" s="18"/>
     </row>
     <row r="34" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="16"/>
@@ -2614,15 +2617,15 @@
       <c r="AG34" s="18"/>
     </row>
     <row r="35" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60">
+      <c r="B35" s="80"/>
+      <c r="C35" s="80">
         <v>5</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="58"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="82"/>
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="16"/>
@@ -2653,11 +2656,11 @@
       <c r="AG35" s="18"/>
     </row>
     <row r="36" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="59"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="83"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="16"/>
@@ -2688,15 +2691,15 @@
       <c r="AG36" s="18"/>
     </row>
     <row r="37" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60">
+      <c r="B37" s="80"/>
+      <c r="C37" s="80">
         <v>30</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="58"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="16"/>
@@ -2727,11 +2730,11 @@
       <c r="AG37" s="18"/>
     </row>
     <row r="38" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="59"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="16"/>
@@ -2762,15 +2765,15 @@
       <c r="AG38" s="18"/>
     </row>
     <row r="39" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80">
         <v>5</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
@@ -2801,11 +2804,11 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16"/>
@@ -2836,15 +2839,15 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="80">
         <v>15</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="58"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
@@ -2875,11 +2878,11 @@
       <c r="AG41" s="18"/>
     </row>
     <row r="42" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="59"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
@@ -2910,15 +2913,15 @@
       <c r="AG42" s="18"/>
     </row>
     <row r="43" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60">
+      <c r="B43" s="80"/>
+      <c r="C43" s="80">
         <v>30</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="58"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="82"/>
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
@@ -2949,11 +2952,11 @@
       <c r="AG43" s="18"/>
     </row>
     <row r="44" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="59"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
@@ -2984,17 +2987,17 @@
       <c r="AG44" s="18"/>
     </row>
     <row r="45" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="80">
         <v>25</v>
       </c>
-      <c r="C45" s="60">
+      <c r="C45" s="80">
         <v>20</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="58"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="82"/>
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="16"/>
@@ -3025,11 +3028,11 @@
       <c r="AG45" s="18"/>
     </row>
     <row r="46" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="59"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="83"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
@@ -3060,13 +3063,13 @@
       <c r="AG46" s="18"/>
     </row>
     <row r="47" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -3087,10 +3090,10 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
-      <c r="Z47" s="43" t="s">
+      <c r="Z47" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AA47" s="44"/>
+      <c r="AA47" s="97"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
       <c r="AD47" s="9"/>
@@ -3099,11 +3102,11 @@
       <c r="AG47" s="10"/>
     </row>
     <row r="48" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="57"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3124,8 +3127,8 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="46"/>
+      <c r="Z48" s="98"/>
+      <c r="AA48" s="99"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
@@ -3134,15 +3137,15 @@
       <c r="AG48" s="7"/>
     </row>
     <row r="49" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60">
+      <c r="B49" s="80"/>
+      <c r="C49" s="80">
         <v>10</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="16"/>
@@ -3173,11 +3176,11 @@
       <c r="AG49" s="18"/>
     </row>
     <row r="50" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="59"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="16"/>
@@ -3208,15 +3211,15 @@
       <c r="AG50" s="18"/>
     </row>
     <row r="51" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60">
+      <c r="B51" s="80"/>
+      <c r="C51" s="80">
         <v>15</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="58"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="16"/>
@@ -3247,11 +3250,11 @@
       <c r="AG51" s="18"/>
     </row>
     <row r="52" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="59"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="83"/>
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="16"/>
@@ -3282,15 +3285,15 @@
       <c r="AG52" s="18"/>
     </row>
     <row r="53" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="60">
+      <c r="B53" s="80">
         <v>5</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="58"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="16"/>
@@ -3321,11 +3324,11 @@
       <c r="AG53" s="18"/>
     </row>
     <row r="54" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="59"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="83"/>
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
@@ -3356,15 +3359,15 @@
       <c r="AG54" s="18"/>
     </row>
     <row r="55" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="60">
+      <c r="B55" s="80">
         <v>10</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="58"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="16"/>
@@ -3395,11 +3398,11 @@
       <c r="AG55" s="18"/>
     </row>
     <row r="56" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="59"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="16"/>
@@ -3430,15 +3433,15 @@
       <c r="AG56" s="18"/>
     </row>
     <row r="57" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="60">
+      <c r="B57" s="80">
         <v>8</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="58"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
@@ -3469,11 +3472,11 @@
       <c r="AG57" s="18"/>
     </row>
     <row r="58" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="59"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="83"/>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
@@ -3504,13 +3507,13 @@
       <c r="AG58" s="18"/>
     </row>
     <row r="59" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="91"/>
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -3541,11 +3544,11 @@
       <c r="AG59" s="10"/>
     </row>
     <row r="60" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="57"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -3576,17 +3579,17 @@
       <c r="AG60" s="7"/>
     </row>
     <row r="61" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="60">
-        <v>10</v>
-      </c>
-      <c r="C61" s="60">
-        <v>10</v>
-      </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="58"/>
+      <c r="B61" s="80">
+        <v>8</v>
+      </c>
+      <c r="C61" s="80">
+        <v>8</v>
+      </c>
+      <c r="D61" s="80"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="16"/>
@@ -3617,11 +3620,11 @@
       <c r="AG61" s="18"/>
     </row>
     <row r="62" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="59"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="83"/>
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="16"/>
@@ -3652,17 +3655,17 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="60">
-        <v>8</v>
-      </c>
-      <c r="C63" s="60">
-        <v>8</v>
-      </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="58"/>
+      <c r="B63" s="80">
+        <v>5</v>
+      </c>
+      <c r="C63" s="80">
+        <v>5</v>
+      </c>
+      <c r="D63" s="80"/>
+      <c r="E63" s="82"/>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="16"/>
@@ -3693,11 +3696,11 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="59"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="83"/>
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="16"/>
@@ -3728,540 +3731,743 @@
       <c r="AG64" s="18"/>
     </row>
     <row r="65" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="80">
+        <v>5</v>
+      </c>
+      <c r="C65" s="80">
+        <v>5</v>
+      </c>
+      <c r="D65" s="80"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="18"/>
+    </row>
+    <row r="66" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="18"/>
+    </row>
+    <row r="67" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="43" t="s">
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="10"/>
-    </row>
-    <row r="66" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="45"/>
-      <c r="AD66" s="46"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="7"/>
-    </row>
-    <row r="67" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="s">
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="10"/>
+    </row>
+    <row r="68" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="94"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="98"/>
+      <c r="AD68" s="99"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="7"/>
+    </row>
+    <row r="69" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="67">
+      <c r="B69" s="70">
         <v>40</v>
       </c>
-      <c r="C67" s="67">
+      <c r="C69" s="70">
         <v>40</v>
       </c>
-      <c r="D67" s="67">
+      <c r="D69" s="70">
         <v>5</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E69" s="72">
         <v>5</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="23"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="23"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="23"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="34"/>
-    </row>
-    <row r="68" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="15"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="15"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="18"/>
-    </row>
-    <row r="69" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="67">
-        <v>7</v>
-      </c>
-      <c r="C69" s="67">
-        <v>7</v>
-      </c>
-      <c r="D69" s="67"/>
-      <c r="E69" s="68"/>
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="15"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="33"/>
       <c r="J69" s="16"/>
       <c r="K69" s="15"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="40"/>
-      <c r="AD69" s="15"/>
-      <c r="AE69" s="15"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="23"/>
       <c r="AF69" s="24"/>
-      <c r="AG69" s="40"/>
-    </row>
-    <row r="70" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="77"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="20"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="20"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="20"/>
-      <c r="AB70" s="21"/>
-      <c r="AC70" s="42"/>
-      <c r="AD70" s="20"/>
-      <c r="AE70" s="20"/>
-      <c r="AF70" s="21"/>
-      <c r="AG70" s="42"/>
+      <c r="AG69" s="34"/>
+    </row>
+    <row r="70" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="16"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="16"/>
+      <c r="AG70" s="18"/>
     </row>
     <row r="71" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="70">
+        <v>7</v>
+      </c>
+      <c r="C71" s="70">
+        <v>7</v>
+      </c>
+      <c r="D71" s="70"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="40"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="40"/>
+    </row>
+    <row r="72" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="50"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="42"/>
+    </row>
+    <row r="73" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="81">
-        <f>SUM(B5:B70)</f>
+      <c r="B73" s="65">
+        <f>SUM(B5:B72)</f>
         <v>240</v>
       </c>
-      <c r="C71" s="81">
-        <f t="shared" ref="C71:E71" si="0">SUM(C5:C70)</f>
+      <c r="C73" s="65">
+        <f t="shared" ref="C73:E73" si="0">SUM(C5:C72)</f>
         <v>240</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D73" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E73" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AB71" s="47" t="s">
+      <c r="AB73" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="AC71" s="48"/>
-      <c r="AF71" s="47" t="s">
+      <c r="AC73" s="101"/>
+      <c r="AF73" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AG71" s="48"/>
-    </row>
-    <row r="72" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="AB72" s="49"/>
-      <c r="AC72" s="50"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="50"/>
-    </row>
-    <row r="73" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="87"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-    </row>
-    <row r="74" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-    </row>
-    <row r="75" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="100" t="s">
+      <c r="AG73" s="101"/>
+    </row>
+    <row r="74" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="74"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="AB74" s="102"/>
+      <c r="AC74" s="103"/>
+      <c r="AF74" s="102"/>
+      <c r="AG74" s="103"/>
+    </row>
+    <row r="75" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="64"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+    </row>
+    <row r="76" spans="1:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="64"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+    </row>
+    <row r="77" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="101"/>
-      <c r="J75" s="101"/>
-      <c r="K75" s="101"/>
-      <c r="L75" s="101"/>
-      <c r="M75" s="101"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="89"/>
-      <c r="Q75" s="82" t="s">
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="67"/>
+      <c r="Q77" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="R75" s="83"/>
-      <c r="S75" s="83"/>
-      <c r="T75" s="83"/>
-      <c r="U75" s="83" t="s">
+      <c r="R77" s="62"/>
+      <c r="S77" s="62"/>
+      <c r="T77" s="62"/>
+      <c r="U77" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="V75" s="83"/>
-      <c r="W75" s="83"/>
-      <c r="X75" s="83"/>
-      <c r="Y75" s="83"/>
-      <c r="Z75" s="83"/>
-      <c r="AA75" s="83"/>
-      <c r="AB75" s="83"/>
-      <c r="AC75" s="83"/>
-      <c r="AD75" s="83"/>
-      <c r="AE75" s="83"/>
-      <c r="AF75" s="83"/>
-      <c r="AG75" s="84"/>
-    </row>
-    <row r="76" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F76" s="77" t="s">
+      <c r="V77" s="62"/>
+      <c r="W77" s="62"/>
+      <c r="X77" s="62"/>
+      <c r="Y77" s="62"/>
+      <c r="Z77" s="62"/>
+      <c r="AA77" s="62"/>
+      <c r="AB77" s="62"/>
+      <c r="AC77" s="62"/>
+      <c r="AD77" s="62"/>
+      <c r="AE77" s="62"/>
+      <c r="AF77" s="62"/>
+      <c r="AG77" s="63"/>
+    </row>
+    <row r="78" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="102"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="90"/>
-      <c r="O76" s="91"/>
-      <c r="Q76" s="62" t="s">
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="69"/>
+      <c r="Q78" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R76" s="85"/>
-      <c r="S76" s="85"/>
-      <c r="T76" s="85"/>
-      <c r="U76" s="85" t="s">
+      <c r="R78" s="48"/>
+      <c r="S78" s="48"/>
+      <c r="T78" s="48"/>
+      <c r="U78" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="V76" s="85"/>
-      <c r="W76" s="85"/>
-      <c r="X76" s="85"/>
-      <c r="Y76" s="85"/>
-      <c r="Z76" s="85"/>
-      <c r="AA76" s="85"/>
-      <c r="AB76" s="85"/>
-      <c r="AC76" s="85"/>
-      <c r="AD76" s="85"/>
-      <c r="AE76" s="85"/>
-      <c r="AF76" s="85"/>
-      <c r="AG76" s="86"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F77" s="100" t="s">
+      <c r="V78" s="48"/>
+      <c r="W78" s="48"/>
+      <c r="X78" s="48"/>
+      <c r="Y78" s="48"/>
+      <c r="Z78" s="48"/>
+      <c r="AA78" s="48"/>
+      <c r="AB78" s="48"/>
+      <c r="AC78" s="48"/>
+      <c r="AD78" s="48"/>
+      <c r="AE78" s="48"/>
+      <c r="AF78" s="48"/>
+      <c r="AG78" s="49"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F79" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="101"/>
-      <c r="H77" s="101"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="101"/>
-      <c r="K77" s="101"/>
-      <c r="L77" s="101"/>
-      <c r="M77" s="101"/>
-      <c r="N77" s="92"/>
-      <c r="O77" s="93"/>
-      <c r="Q77" s="62" t="s">
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="52"/>
+      <c r="Q79" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="R77" s="85"/>
-      <c r="S77" s="85"/>
-      <c r="T77" s="85"/>
-      <c r="U77" s="85" t="s">
+      <c r="R79" s="48"/>
+      <c r="S79" s="48"/>
+      <c r="T79" s="48"/>
+      <c r="U79" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="V77" s="85"/>
-      <c r="W77" s="85"/>
-      <c r="X77" s="85"/>
-      <c r="Y77" s="85"/>
-      <c r="Z77" s="85"/>
-      <c r="AA77" s="85"/>
-      <c r="AB77" s="85"/>
-      <c r="AC77" s="85"/>
-      <c r="AD77" s="85"/>
-      <c r="AE77" s="85"/>
-      <c r="AF77" s="85"/>
-      <c r="AG77" s="86"/>
-    </row>
-    <row r="78" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="77" t="s">
+      <c r="V79" s="48"/>
+      <c r="W79" s="48"/>
+      <c r="X79" s="48"/>
+      <c r="Y79" s="48"/>
+      <c r="Z79" s="48"/>
+      <c r="AA79" s="48"/>
+      <c r="AB79" s="48"/>
+      <c r="AC79" s="48"/>
+      <c r="AD79" s="48"/>
+      <c r="AE79" s="48"/>
+      <c r="AF79" s="48"/>
+      <c r="AG79" s="49"/>
+    </row>
+    <row r="80" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G78" s="102"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="102"/>
-      <c r="J78" s="102"/>
-      <c r="K78" s="102"/>
-      <c r="L78" s="102"/>
-      <c r="M78" s="102"/>
-      <c r="N78" s="94"/>
-      <c r="O78" s="95"/>
-      <c r="Q78" s="62" t="s">
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="54"/>
+      <c r="Q80" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R78" s="85"/>
-      <c r="S78" s="85"/>
-      <c r="T78" s="85"/>
-      <c r="U78" s="85" t="s">
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="48"/>
+      <c r="U80" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="V78" s="85"/>
-      <c r="W78" s="85"/>
-      <c r="X78" s="85"/>
-      <c r="Y78" s="85"/>
-      <c r="Z78" s="85"/>
-      <c r="AA78" s="85"/>
-      <c r="AB78" s="85"/>
-      <c r="AC78" s="85"/>
-      <c r="AD78" s="85"/>
-      <c r="AE78" s="85"/>
-      <c r="AF78" s="85"/>
-      <c r="AG78" s="86"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F79" s="62" t="s">
+      <c r="V80" s="48"/>
+      <c r="W80" s="48"/>
+      <c r="X80" s="48"/>
+      <c r="Y80" s="48"/>
+      <c r="Z80" s="48"/>
+      <c r="AA80" s="48"/>
+      <c r="AB80" s="48"/>
+      <c r="AC80" s="48"/>
+      <c r="AD80" s="48"/>
+      <c r="AE80" s="48"/>
+      <c r="AF80" s="48"/>
+      <c r="AG80" s="49"/>
+    </row>
+    <row r="81" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F81" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="97"/>
-      <c r="Q79" s="62" t="s">
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="56"/>
+      <c r="Q81" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="R79" s="85"/>
-      <c r="S79" s="85"/>
-      <c r="T79" s="85"/>
-      <c r="U79" s="85" t="s">
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="U81" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="V79" s="85"/>
-      <c r="W79" s="85"/>
-      <c r="X79" s="85"/>
-      <c r="Y79" s="85"/>
-      <c r="Z79" s="85"/>
-      <c r="AA79" s="85"/>
-      <c r="AB79" s="85"/>
-      <c r="AC79" s="85"/>
-      <c r="AD79" s="85"/>
-      <c r="AE79" s="85"/>
-      <c r="AF79" s="85"/>
-      <c r="AG79" s="86"/>
-    </row>
-    <row r="80" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F80" s="77" t="s">
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="48"/>
+      <c r="AB81" s="48"/>
+      <c r="AC81" s="48"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="48"/>
+      <c r="AF81" s="48"/>
+      <c r="AG81" s="49"/>
+    </row>
+    <row r="82" spans="6:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="102"/>
-      <c r="H80" s="102"/>
-      <c r="I80" s="102"/>
-      <c r="J80" s="102"/>
-      <c r="K80" s="102"/>
-      <c r="L80" s="102"/>
-      <c r="M80" s="102"/>
-      <c r="N80" s="98"/>
-      <c r="O80" s="99"/>
-      <c r="Q80" s="77" t="s">
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="58"/>
+      <c r="Q82" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="R80" s="102"/>
-      <c r="S80" s="102"/>
-      <c r="T80" s="102"/>
-      <c r="U80" s="102" t="s">
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="V80" s="102"/>
-      <c r="W80" s="102"/>
-      <c r="X80" s="102"/>
-      <c r="Y80" s="102"/>
-      <c r="Z80" s="102"/>
-      <c r="AA80" s="102"/>
-      <c r="AB80" s="102"/>
-      <c r="AC80" s="102"/>
-      <c r="AD80" s="102"/>
-      <c r="AE80" s="102"/>
-      <c r="AF80" s="102"/>
-      <c r="AG80" s="103"/>
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
+      <c r="Y82" s="45"/>
+      <c r="Z82" s="45"/>
+      <c r="AA82" s="45"/>
+      <c r="AB82" s="45"/>
+      <c r="AC82" s="45"/>
+      <c r="AD82" s="45"/>
+      <c r="AE82" s="45"/>
+      <c r="AF82" s="45"/>
+      <c r="AG82" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
-    <mergeCell ref="U80:AG80"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="U77:AG77"/>
-    <mergeCell ref="Q78:T78"/>
-    <mergeCell ref="U78:AG78"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="U79:AG79"/>
-    <mergeCell ref="F79:M79"/>
-    <mergeCell ref="F80:M80"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="F75:M75"/>
-    <mergeCell ref="F76:M76"/>
-    <mergeCell ref="F77:M77"/>
-    <mergeCell ref="F78:M78"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="U75:AG75"/>
-    <mergeCell ref="Q76:T76"/>
-    <mergeCell ref="U76:AG76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
+  <mergeCells count="229">
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="AC67:AD68"/>
+    <mergeCell ref="Z47:AA48"/>
+    <mergeCell ref="AB73:AC74"/>
+    <mergeCell ref="AF73:AG74"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -4286,167 +4492,45 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="N25:O26"/>
-    <mergeCell ref="AC65:AD66"/>
-    <mergeCell ref="Z47:AA48"/>
-    <mergeCell ref="AB71:AC72"/>
-    <mergeCell ref="AF71:AG72"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F77:M77"/>
+    <mergeCell ref="F78:M78"/>
+    <mergeCell ref="F79:M79"/>
+    <mergeCell ref="F80:M80"/>
+    <mergeCell ref="Q82:T82"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="U77:AG77"/>
+    <mergeCell ref="Q78:T78"/>
+    <mergeCell ref="U78:AG78"/>
+    <mergeCell ref="U82:AG82"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="U79:AG79"/>
+    <mergeCell ref="Q80:T80"/>
+    <mergeCell ref="U80:AG80"/>
+    <mergeCell ref="Q81:T81"/>
+    <mergeCell ref="U81:AG81"/>
+    <mergeCell ref="F81:M81"/>
+    <mergeCell ref="F82:M82"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N82:O82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" verticalDpi="200" r:id="rId1"/>
